--- a/Opollo/src/test/data/pms/single_product_import_create_template_v7.xlsx
+++ b/Opollo/src/test/data/pms/single_product_import_create_template_v7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkhoaa/IdeaProjects/Opollo-web-auto/Opollo/src/test/data/pms/"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="606">
   <si>
     <t>Country</t>
   </si>
@@ -2424,11 +2424,27 @@
   <si>
     <t>VENDORMLA</t>
   </si>
+  <si>
+    <t>LKQRTJ844S</t>
+  </si>
+  <si>
+    <t>JKHOUMET</t>
+  </si>
+  <si>
+    <t>6GI9A1G8</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>pickup_by_buyer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -3137,36 +3153,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="26.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.5" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.1640625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="32.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="32.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="33.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="28.6640625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="30.5" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.5" style="25" hidden="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.5" hidden="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17.5" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="23" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.5" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.1640625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="26.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="29.5" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="25" width="19.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="20.1640625" collapsed="true"/>
+    <col min="16" max="19" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="20" max="21" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="32.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="33.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="28.6640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="25" width="30.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" hidden="true" style="25" width="12.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" hidden="true" width="12.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="25" width="17.5" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="25" width="20.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="25" width="23.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="25" width="19.5" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="25" width="23.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="17.25" hidden="1" customHeight="1">
@@ -3497,10 +3513,14 @@
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+        <v>601</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>603</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>589</v>
       </c>
@@ -3508,10 +3528,10 @@
         <v>590</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>593</v>
@@ -3532,32 +3552,35 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="26">
-        <v>2</v>
-      </c>
-      <c r="U4" s="26">
-        <v>3</v>
-      </c>
-      <c r="V4" s="26">
-        <v>4</v>
-      </c>
-      <c r="W4" s="27">
-        <v>222</v>
-      </c>
-      <c r="X4" s="27">
-        <v>123</v>
-      </c>
-      <c r="Y4" s="27">
-        <v>333</v>
-      </c>
-      <c r="Z4" s="27">
-        <v>444</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>555</v>
+      <c r="T4" s="26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" s="26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V4" s="26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W4" s="27" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="X4" s="27" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="Y4" s="27" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="Z4" s="27" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="AA4" s="25" t="n">
+        <v>555.0</v>
       </c>
       <c r="AC4" s="25" t="s">
-        <v>598</v>
+        <v>485</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>589</v>
       </c>
       <c r="AH4" s="25" t="s">
         <v>591</v>
@@ -3566,13 +3589,13 @@
         <v>591</v>
       </c>
       <c r="AJ4" s="25" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="AK4" s="25" t="s">
         <v>592</v>
       </c>
       <c r="AL4" s="25" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1">
@@ -7702,7 +7725,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -7764,8 +7787,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="59.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">

--- a/Opollo/src/test/data/pms/single_product_import_create_template_v7.xlsx
+++ b/Opollo/src/test/data/pms/single_product_import_create_template_v7.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="612">
   <si>
     <t>Country</t>
   </si>
@@ -2438,6 +2438,24 @@
   </si>
   <si>
     <t>pickup_by_buyer</t>
+  </si>
+  <si>
+    <t>LK054YTZDE</t>
+  </si>
+  <si>
+    <t>BR46OJB3</t>
+  </si>
+  <si>
+    <t>PBIEXS7O</t>
+  </si>
+  <si>
+    <t>LKE2MHSHQ0</t>
+  </si>
+  <si>
+    <t>1PFFFM17</t>
+  </si>
+  <si>
+    <t>C44C9NB1</t>
   </si>
 </sst>
 </file>
@@ -3513,13 +3531,13 @@
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>589</v>
@@ -3531,7 +3549,7 @@
         <v>589</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>593</v>
